--- a/Analysis/calibration/factors_calibration/recover rate/50_repetitions/calibration_recover_rate_50_repetitions.xlsx
+++ b/Analysis/calibration/factors_calibration/recover rate/50_repetitions/calibration_recover_rate_50_repetitions.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -21,6 +21,12 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">VALORI FISSATI: MINION arrival time =5s e service time= 2s, BOSS arrival time= 10s e service time=3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: avendo dei CI che ricoprono quasi tutto lo spazio di valori e l’unica differenza si può notare tra 0% e 100% si può decidere di utilizzare solo questi due estremi sia nello studio che nella simulazione</t>
+  </si>
   <si>
     <t xml:space="preserve">Experiment</t>
   </si>
@@ -69,12 +75,6 @@
   <si>
     <t xml:space="preserve">minion_response_time_stat:vector</t>
   </si>
-  <si>
-    <t xml:space="preserve">VALORI FISSATI: MINION arrival time =5s e service time= 2s, BOSS arrival time= 10s e service time=3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE: avendo dei CI che ricoprono quasi tutto lo spazio di valori e l’unica differenza si può notare tra 0% e 100% si può decidere di utilizzare solo questi due estremi sia nello studio che nella simulazione</t>
-  </si>
 </sst>
 </file>
 
@@ -89,6 +89,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -106,13 +107,12 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -239,11 +239,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,7 +255,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,10 +297,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -371,7 +371,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -391,7 +391,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Factors Calibration - Recover Rate X%</a:t>
+              <a:t>Factors Calibration - Recover Rate x</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -455,6 +455,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -574,13 +575,15 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="29169850"/>
-        <c:axId val="70459438"/>
+        <c:axId val="88916983"/>
+        <c:axId val="30731467"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="29169850"/>
+        <c:axId val="88916983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="105"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -599,7 +602,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Recover Rate % </a:t>
+                  <a:t>Recover Rate x</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -634,12 +637,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70459438"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="30731467"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70459438"/>
+        <c:axId val="30731467"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13"/>
@@ -671,7 +675,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Mean Response Time E[R] [seconds]</a:t>
+                  <a:t>Mean Response Time E[R] [s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -706,7 +710,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29169850"/>
+        <c:crossAx val="88916983"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -767,9 +771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>684360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:colOff>1275120</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -777,8 +781,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12253680" y="2562120"/>
-        <a:ext cx="6644160" cy="4114080"/>
+        <a:off x="14398920" y="3218040"/>
+        <a:ext cx="7235280" cy="4479480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -798,69 +802,78 @@
   </sheetPr>
   <dimension ref="B1:U252"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T36" activeCellId="0" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="31.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="30.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="30.9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="97.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -869,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>82</v>
@@ -883,30 +896,30 @@
       <c r="I3" s="0" t="n">
         <v>7.14277076952432</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="7" t="n">
         <f aca="false">AVERAGE(H3:H52)</f>
         <v>9.33873352906412</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="7" t="n">
         <f aca="false">AVERAGE(G$3:G$52)</f>
         <v>84.58</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="n">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="n">
         <f aca="false">_xlfn.STDEV.S(H3:H52)</f>
         <v>2.63372193048657</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="9" t="n">
         <f aca="false">CONFIDENCE(0.05,P3,COUNT(C$3:C$52))</f>
         <v>0.730017059146991</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -915,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>107</v>
@@ -929,29 +942,29 @@
       <c r="I4" s="0" t="n">
         <v>6.64882182718935</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="M4" s="10" t="n">
+      <c r="M4" s="11" t="n">
         <f aca="false">AVERAGE($H53:$H102)</f>
         <v>9.66154202186255</v>
       </c>
-      <c r="N4" s="10" t="n">
+      <c r="N4" s="11" t="n">
         <f aca="false">AVERAGE(G$53:G$102)</f>
         <v>85.8</v>
       </c>
-      <c r="P4" s="10" t="n">
+      <c r="P4" s="11" t="n">
         <f aca="false">_xlfn.STDEV.S($H53:$H102)</f>
         <v>2.83167874146999</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="9" t="n">
         <f aca="false">CONFIDENCE(0.05,P4,COUNT(C$3:C$52))</f>
         <v>0.784886879426588</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -960,10 +973,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>102</v>
@@ -974,29 +987,29 @@
       <c r="I5" s="0" t="n">
         <v>12.5179311044136</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="M5" s="10" t="n">
+      <c r="M5" s="11" t="n">
         <f aca="false">AVERAGE($H103:$H152)</f>
         <v>9.9848685516007</v>
       </c>
-      <c r="N5" s="10" t="n">
+      <c r="N5" s="11" t="n">
         <f aca="false">AVERAGE(G$103:G$152)</f>
         <v>87</v>
       </c>
-      <c r="P5" s="10" t="n">
+      <c r="P5" s="11" t="n">
         <f aca="false">_xlfn.STDEV.S($H103:$H152)</f>
         <v>2.99319520430247</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="9" t="n">
         <f aca="false">CONFIDENCE(0.05,P5,COUNT(C$3:C$52))</f>
         <v>0.829656136133581</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -1005,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>74</v>
@@ -1019,29 +1032,29 @@
       <c r="I6" s="0" t="n">
         <v>10.740296843024</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="10" t="n">
         <v>75</v>
       </c>
-      <c r="M6" s="10" t="n">
+      <c r="M6" s="11" t="n">
         <f aca="false">AVERAGE($H153:$H202)</f>
         <v>10.3370798128111</v>
       </c>
-      <c r="N6" s="10" t="n">
+      <c r="N6" s="11" t="n">
         <f aca="false">AVERAGE(G$153:G$202)</f>
         <v>88.48</v>
       </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="11" t="n">
         <f aca="false">_xlfn.STDEV.S($H153:$H202)</f>
         <v>3.14701791596932</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="9" t="n">
         <f aca="false">CONFIDENCE(0.05,P6,COUNT(C$3:C$52))</f>
         <v>0.872292833007767</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -1050,10 +1063,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>103</v>
@@ -1064,30 +1077,30 @@
       <c r="I7" s="0" t="n">
         <v>10.4186692321443</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="M7" s="12" t="n">
+      <c r="M7" s="13" t="n">
         <f aca="false">AVERAGE($H203:$H252)</f>
         <v>10.7547975248966</v>
       </c>
-      <c r="N7" s="12" t="n">
+      <c r="N7" s="13" t="n">
         <f aca="false">AVERAGE(G$203:G$252)</f>
         <v>89.9</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12" t="n">
+      <c r="O7" s="14"/>
+      <c r="P7" s="13" t="n">
         <f aca="false">_xlfn.STDEV.S($H203:$H252)</f>
         <v>3.35139169953256</v>
       </c>
-      <c r="Q7" s="14" t="n">
+      <c r="Q7" s="15" t="n">
         <f aca="false">CONFIDENCE(0.05,P7,COUNT(C$3:C$52))</f>
         <v>0.928941314655189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -1096,10 +1109,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>72</v>
@@ -1113,7 +1126,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -1122,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>82</v>
@@ -1139,7 +1152,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -1148,10 +1161,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>96</v>
@@ -1165,7 +1178,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -1174,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>68</v>
@@ -1191,7 +1204,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -1200,10 +1213,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>72</v>
@@ -1217,7 +1230,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -1226,10 +1239,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>97</v>
@@ -1243,7 +1256,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -1252,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>84</v>
@@ -1267,9 +1280,9 @@
         <v>20.5007519313204</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="97" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -1278,10 +1291,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>72</v>
@@ -1292,16 +1305,10 @@
       <c r="I15" s="0" t="n">
         <v>6.95981933051182</v>
       </c>
-      <c r="T15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U15" s="15" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -1310,10 +1317,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>77</v>
@@ -1327,7 +1334,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -1336,10 +1343,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>86</v>
@@ -1353,7 +1360,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -1362,10 +1369,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>85</v>
@@ -1379,7 +1386,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -1388,10 +1395,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>85</v>
@@ -1405,7 +1412,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -1414,10 +1421,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>84</v>
@@ -1431,7 +1438,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -1440,10 +1447,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>71</v>
@@ -1457,7 +1464,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -1466,10 +1473,10 @@
         <v>19</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>96</v>
@@ -1483,7 +1490,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -1492,10 +1499,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>82</v>
@@ -1509,7 +1516,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -1518,10 +1525,10 @@
         <v>21</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>74</v>
@@ -1535,7 +1542,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -1544,10 +1551,10 @@
         <v>22</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>98</v>
@@ -1561,7 +1568,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -1570,10 +1577,10 @@
         <v>23</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>86</v>
@@ -1587,7 +1594,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -1596,10 +1603,10 @@
         <v>24</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>83</v>
@@ -1613,7 +1620,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -1622,10 +1629,10 @@
         <v>25</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>84</v>
@@ -1639,7 +1646,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -1648,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>102</v>
@@ -1665,7 +1672,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -1674,10 +1681,10 @@
         <v>27</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>85</v>
@@ -1691,7 +1698,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -1700,10 +1707,10 @@
         <v>28</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>93</v>
@@ -1717,7 +1724,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -1726,10 +1733,10 @@
         <v>29</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>89</v>
@@ -1743,7 +1750,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -1752,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>86</v>
@@ -1769,7 +1776,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -1778,10 +1785,10 @@
         <v>31</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>94</v>
@@ -1795,7 +1802,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -1804,10 +1811,10 @@
         <v>32</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>80</v>
@@ -1821,7 +1828,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -1830,10 +1837,10 @@
         <v>33</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>80</v>
@@ -1847,7 +1854,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -1856,10 +1863,10 @@
         <v>34</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>86</v>
@@ -1873,7 +1880,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -1882,10 +1889,10 @@
         <v>35</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>83</v>
@@ -1899,7 +1906,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -1908,10 +1915,10 @@
         <v>36</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>78</v>
@@ -1925,7 +1932,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -1934,10 +1941,10 @@
         <v>37</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>96</v>
@@ -1951,7 +1958,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -1960,10 +1967,10 @@
         <v>38</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>77</v>
@@ -1977,7 +1984,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -1986,10 +1993,10 @@
         <v>39</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>85</v>
@@ -2003,7 +2010,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -2012,10 +2019,10 @@
         <v>40</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>91</v>
@@ -2029,7 +2036,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -2038,10 +2045,10 @@
         <v>41</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>60</v>
@@ -2055,7 +2062,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -2064,10 +2071,10 @@
         <v>42</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>84</v>
@@ -2081,7 +2088,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -2090,10 +2097,10 @@
         <v>43</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>71</v>
@@ -2107,7 +2114,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -2116,10 +2123,10 @@
         <v>44</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>79</v>
@@ -2133,7 +2140,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -2142,10 +2149,10 @@
         <v>45</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>87</v>
@@ -2159,7 +2166,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -2168,10 +2175,10 @@
         <v>46</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>79</v>
@@ -2185,7 +2192,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -2194,10 +2201,10 @@
         <v>47</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>85</v>
@@ -2211,7 +2218,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -2220,10 +2227,10 @@
         <v>48</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>84</v>
@@ -2237,7 +2244,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -2246,10 +2253,10 @@
         <v>49</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>93</v>
@@ -2263,7 +2270,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>25</v>
@@ -2272,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>83</v>
@@ -2289,7 +2296,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>25</v>
@@ -2298,10 +2305,10 @@
         <v>1</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>107</v>
@@ -2315,7 +2322,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>25</v>
@@ -2324,10 +2331,10 @@
         <v>2</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>104</v>
@@ -2341,7 +2348,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>25</v>
@@ -2350,10 +2357,10 @@
         <v>3</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>75</v>
@@ -2367,7 +2374,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>25</v>
@@ -2376,10 +2383,10 @@
         <v>4</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>104</v>
@@ -2393,7 +2400,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>25</v>
@@ -2402,10 +2409,10 @@
         <v>5</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>73</v>
@@ -2419,7 +2426,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>25</v>
@@ -2428,10 +2435,10 @@
         <v>6</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>83</v>
@@ -2445,7 +2452,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>25</v>
@@ -2454,10 +2461,10 @@
         <v>7</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>96</v>
@@ -2471,7 +2478,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>25</v>
@@ -2480,10 +2487,10 @@
         <v>8</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>69</v>
@@ -2497,7 +2504,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>25</v>
@@ -2506,10 +2513,10 @@
         <v>9</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>72</v>
@@ -2523,7 +2530,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>25</v>
@@ -2532,10 +2539,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>98</v>
@@ -2549,7 +2556,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>25</v>
@@ -2558,10 +2565,10 @@
         <v>11</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>84</v>
@@ -2575,7 +2582,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>25</v>
@@ -2584,10 +2591,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>72</v>
@@ -2601,7 +2608,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>25</v>
@@ -2610,10 +2617,10 @@
         <v>13</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>78</v>
@@ -2627,7 +2634,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>25</v>
@@ -2636,10 +2643,10 @@
         <v>14</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>90</v>
@@ -2653,7 +2660,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>25</v>
@@ -2662,10 +2669,10 @@
         <v>15</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>87</v>
@@ -2679,7 +2686,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>25</v>
@@ -2688,10 +2695,10 @@
         <v>16</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>85</v>
@@ -2705,7 +2712,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>25</v>
@@ -2714,10 +2721,10 @@
         <v>17</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>84</v>
@@ -2731,7 +2738,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>25</v>
@@ -2740,10 +2747,10 @@
         <v>18</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>72</v>
@@ -2757,7 +2764,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>25</v>
@@ -2766,10 +2773,10 @@
         <v>19</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>101</v>
@@ -2783,7 +2790,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>25</v>
@@ -2792,10 +2799,10 @@
         <v>20</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>84</v>
@@ -2809,7 +2816,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>25</v>
@@ -2818,10 +2825,10 @@
         <v>21</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>74</v>
@@ -2835,7 +2842,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>25</v>
@@ -2844,10 +2851,10 @@
         <v>22</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>99</v>
@@ -2861,7 +2868,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>25</v>
@@ -2870,10 +2877,10 @@
         <v>23</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>86</v>
@@ -2887,7 +2894,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>25</v>
@@ -2896,10 +2903,10 @@
         <v>24</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>84</v>
@@ -2913,7 +2920,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>25</v>
@@ -2922,10 +2929,10 @@
         <v>25</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>85</v>
@@ -2939,7 +2946,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>25</v>
@@ -2948,10 +2955,10 @@
         <v>26</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>103</v>
@@ -2965,7 +2972,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>25</v>
@@ -2974,10 +2981,10 @@
         <v>27</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>87</v>
@@ -2991,7 +2998,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>25</v>
@@ -3000,10 +3007,10 @@
         <v>28</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>94</v>
@@ -3017,7 +3024,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>25</v>
@@ -3026,10 +3033,10 @@
         <v>29</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>91</v>
@@ -3043,7 +3050,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>25</v>
@@ -3052,10 +3059,10 @@
         <v>30</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>88</v>
@@ -3069,7 +3076,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>25</v>
@@ -3078,10 +3085,10 @@
         <v>31</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>97</v>
@@ -3095,7 +3102,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>25</v>
@@ -3104,10 +3111,10 @@
         <v>32</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>81</v>
@@ -3121,7 +3128,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>25</v>
@@ -3130,10 +3137,10 @@
         <v>33</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>83</v>
@@ -3147,7 +3154,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>25</v>
@@ -3156,10 +3163,10 @@
         <v>34</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>87</v>
@@ -3173,7 +3180,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>25</v>
@@ -3182,10 +3189,10 @@
         <v>35</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>84</v>
@@ -3199,7 +3206,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>25</v>
@@ -3208,10 +3215,10 @@
         <v>36</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>80</v>
@@ -3225,7 +3232,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>25</v>
@@ -3234,10 +3241,10 @@
         <v>37</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>97</v>
@@ -3251,7 +3258,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>25</v>
@@ -3260,10 +3267,10 @@
         <v>38</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>77</v>
@@ -3277,7 +3284,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>25</v>
@@ -3286,10 +3293,10 @@
         <v>39</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G92" s="0" t="n">
         <v>86</v>
@@ -3303,7 +3310,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>25</v>
@@ -3312,10 +3319,10 @@
         <v>40</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>93</v>
@@ -3329,7 +3336,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>25</v>
@@ -3338,10 +3345,10 @@
         <v>41</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>62</v>
@@ -3355,7 +3362,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>25</v>
@@ -3364,10 +3371,10 @@
         <v>42</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>86</v>
@@ -3381,7 +3388,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>25</v>
@@ -3390,10 +3397,10 @@
         <v>43</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>71</v>
@@ -3407,7 +3414,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>25</v>
@@ -3416,10 +3423,10 @@
         <v>44</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>80</v>
@@ -3433,7 +3440,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>25</v>
@@ -3442,10 +3449,10 @@
         <v>45</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>87</v>
@@ -3459,7 +3466,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>25</v>
@@ -3468,10 +3475,10 @@
         <v>46</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>82</v>
@@ -3485,7 +3492,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>25</v>
@@ -3494,10 +3501,10 @@
         <v>47</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>86</v>
@@ -3511,7 +3518,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>25</v>
@@ -3520,10 +3527,10 @@
         <v>48</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>85</v>
@@ -3537,7 +3544,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>25</v>
@@ -3546,10 +3553,10 @@
         <v>49</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G102" s="0" t="n">
         <v>94</v>
@@ -3563,7 +3570,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>50</v>
@@ -3572,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>83</v>
@@ -3589,7 +3596,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>50</v>
@@ -3598,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G104" s="0" t="n">
         <v>107</v>
@@ -3615,7 +3622,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>50</v>
@@ -3624,10 +3631,10 @@
         <v>2</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>106</v>
@@ -3641,7 +3648,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>50</v>
@@ -3650,10 +3657,10 @@
         <v>3</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>76</v>
@@ -3667,7 +3674,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>50</v>
@@ -3676,10 +3683,10 @@
         <v>4</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -3693,7 +3700,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>50</v>
@@ -3702,10 +3709,10 @@
         <v>5</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>74</v>
@@ -3719,7 +3726,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>50</v>
@@ -3728,10 +3735,10 @@
         <v>6</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>83</v>
@@ -3745,7 +3752,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>50</v>
@@ -3754,10 +3761,10 @@
         <v>7</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>96</v>
@@ -3771,7 +3778,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>50</v>
@@ -3780,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>69</v>
@@ -3797,7 +3804,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>50</v>
@@ -3806,10 +3813,10 @@
         <v>9</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>72</v>
@@ -3823,7 +3830,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>50</v>
@@ -3832,10 +3839,10 @@
         <v>10</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>102</v>
@@ -3849,7 +3856,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>50</v>
@@ -3858,10 +3865,10 @@
         <v>11</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>85</v>
@@ -3875,7 +3882,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>50</v>
@@ -3884,10 +3891,10 @@
         <v>12</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>72</v>
@@ -3901,7 +3908,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>50</v>
@@ -3910,10 +3917,10 @@
         <v>13</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>78</v>
@@ -3927,7 +3934,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>50</v>
@@ -3936,10 +3943,10 @@
         <v>14</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>90</v>
@@ -3953,7 +3960,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>50</v>
@@ -3962,10 +3969,10 @@
         <v>15</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G118" s="0" t="n">
         <v>87</v>
@@ -3979,7 +3986,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>50</v>
@@ -3988,10 +3995,10 @@
         <v>16</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>87</v>
@@ -4005,7 +4012,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>50</v>
@@ -4014,10 +4021,10 @@
         <v>17</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>85</v>
@@ -4031,7 +4038,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>50</v>
@@ -4040,10 +4047,10 @@
         <v>18</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>73</v>
@@ -4057,7 +4064,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>50</v>
@@ -4066,10 +4073,10 @@
         <v>19</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>105</v>
@@ -4083,7 +4090,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>50</v>
@@ -4092,10 +4099,10 @@
         <v>20</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G123" s="0" t="n">
         <v>85</v>
@@ -4109,7 +4116,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>50</v>
@@ -4118,10 +4125,10 @@
         <v>21</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>77</v>
@@ -4135,7 +4142,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>50</v>
@@ -4144,10 +4151,10 @@
         <v>22</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G125" s="0" t="n">
         <v>102</v>
@@ -4161,7 +4168,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>50</v>
@@ -4170,10 +4177,10 @@
         <v>23</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G126" s="0" t="n">
         <v>86</v>
@@ -4187,7 +4194,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>50</v>
@@ -4196,10 +4203,10 @@
         <v>24</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G127" s="0" t="n">
         <v>87</v>
@@ -4213,7 +4220,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>50</v>
@@ -4222,10 +4229,10 @@
         <v>25</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G128" s="0" t="n">
         <v>86</v>
@@ -4239,7 +4246,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>50</v>
@@ -4248,10 +4255,10 @@
         <v>26</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G129" s="0" t="n">
         <v>103</v>
@@ -4265,7 +4272,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>50</v>
@@ -4274,10 +4281,10 @@
         <v>27</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>90</v>
@@ -4291,7 +4298,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>50</v>
@@ -4300,10 +4307,10 @@
         <v>28</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>94</v>
@@ -4317,7 +4324,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>50</v>
@@ -4326,10 +4333,10 @@
         <v>29</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>92</v>
@@ -4343,7 +4350,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>50</v>
@@ -4352,10 +4359,10 @@
         <v>30</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>88</v>
@@ -4369,7 +4376,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>50</v>
@@ -4378,10 +4385,10 @@
         <v>31</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>97</v>
@@ -4395,7 +4402,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>50</v>
@@ -4404,10 +4411,10 @@
         <v>32</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>81</v>
@@ -4421,7 +4428,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>50</v>
@@ -4430,10 +4437,10 @@
         <v>33</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G136" s="0" t="n">
         <v>84</v>
@@ -4447,7 +4454,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>50</v>
@@ -4456,10 +4463,10 @@
         <v>34</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G137" s="0" t="n">
         <v>88</v>
@@ -4473,7 +4480,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>50</v>
@@ -4482,10 +4489,10 @@
         <v>35</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G138" s="0" t="n">
         <v>85</v>
@@ -4499,7 +4506,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>50</v>
@@ -4508,10 +4515,10 @@
         <v>36</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G139" s="0" t="n">
         <v>82</v>
@@ -4525,7 +4532,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>50</v>
@@ -4534,10 +4541,10 @@
         <v>37</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G140" s="0" t="n">
         <v>100</v>
@@ -4551,7 +4558,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>50</v>
@@ -4560,10 +4567,10 @@
         <v>38</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G141" s="0" t="n">
         <v>78</v>
@@ -4577,7 +4584,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>50</v>
@@ -4586,10 +4593,10 @@
         <v>39</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>87</v>
@@ -4603,7 +4610,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>50</v>
@@ -4612,10 +4619,10 @@
         <v>40</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>94</v>
@@ -4629,7 +4636,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>50</v>
@@ -4638,10 +4645,10 @@
         <v>41</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>63</v>
@@ -4655,7 +4662,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>50</v>
@@ -4664,10 +4671,10 @@
         <v>42</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>87</v>
@@ -4681,7 +4688,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>50</v>
@@ -4690,10 +4697,10 @@
         <v>43</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>71</v>
@@ -4707,7 +4714,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>50</v>
@@ -4716,10 +4723,10 @@
         <v>44</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>83</v>
@@ -4733,7 +4740,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>50</v>
@@ -4742,10 +4749,10 @@
         <v>45</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>90</v>
@@ -4759,7 +4766,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>50</v>
@@ -4768,10 +4775,10 @@
         <v>46</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>84</v>
@@ -4785,7 +4792,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>50</v>
@@ -4794,10 +4801,10 @@
         <v>47</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>90</v>
@@ -4811,7 +4818,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>50</v>
@@ -4820,10 +4827,10 @@
         <v>48</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>85</v>
@@ -4837,7 +4844,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>50</v>
@@ -4846,10 +4853,10 @@
         <v>49</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>97</v>
@@ -4863,7 +4870,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>75</v>
@@ -4872,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>85</v>
@@ -4889,7 +4896,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>75</v>
@@ -4898,10 +4905,10 @@
         <v>1</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>109</v>
@@ -4915,7 +4922,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>75</v>
@@ -4924,10 +4931,10 @@
         <v>2</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>106</v>
@@ -4941,7 +4948,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>75</v>
@@ -4950,10 +4957,10 @@
         <v>3</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G156" s="0" t="n">
         <v>76</v>
@@ -4967,7 +4974,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>75</v>
@@ -4976,10 +4983,10 @@
         <v>4</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G157" s="0" t="n">
         <v>106</v>
@@ -4993,7 +5000,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>75</v>
@@ -5002,10 +5009,10 @@
         <v>5</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G158" s="0" t="n">
         <v>76</v>
@@ -5019,7 +5026,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>75</v>
@@ -5028,10 +5035,10 @@
         <v>6</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G159" s="0" t="n">
         <v>83</v>
@@ -5045,7 +5052,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>75</v>
@@ -5054,10 +5061,10 @@
         <v>7</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>97</v>
@@ -5071,7 +5078,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>75</v>
@@ -5080,10 +5087,10 @@
         <v>8</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>70</v>
@@ -5097,7 +5104,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>75</v>
@@ -5106,10 +5113,10 @@
         <v>9</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>73</v>
@@ -5123,7 +5130,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>75</v>
@@ -5132,10 +5139,10 @@
         <v>10</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G163" s="0" t="n">
         <v>104</v>
@@ -5149,7 +5156,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>75</v>
@@ -5158,10 +5165,10 @@
         <v>11</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G164" s="0" t="n">
         <v>87</v>
@@ -5175,7 +5182,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>75</v>
@@ -5184,10 +5191,10 @@
         <v>12</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>75</v>
@@ -5201,7 +5208,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>75</v>
@@ -5210,10 +5217,10 @@
         <v>13</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>79</v>
@@ -5227,7 +5234,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>75</v>
@@ -5236,10 +5243,10 @@
         <v>14</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G167" s="0" t="n">
         <v>92</v>
@@ -5253,7 +5260,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>75</v>
@@ -5262,10 +5269,10 @@
         <v>15</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G168" s="0" t="n">
         <v>88</v>
@@ -5279,7 +5286,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>75</v>
@@ -5288,10 +5295,10 @@
         <v>16</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>88</v>
@@ -5305,7 +5312,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>75</v>
@@ -5314,10 +5321,10 @@
         <v>17</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>86</v>
@@ -5331,7 +5338,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>75</v>
@@ -5340,10 +5347,10 @@
         <v>18</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>75</v>
@@ -5357,7 +5364,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>75</v>
@@ -5366,10 +5373,10 @@
         <v>19</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G172" s="0" t="n">
         <v>107</v>
@@ -5383,7 +5390,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>75</v>
@@ -5392,10 +5399,10 @@
         <v>20</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G173" s="0" t="n">
         <v>86</v>
@@ -5409,7 +5416,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>75</v>
@@ -5418,10 +5425,10 @@
         <v>21</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G174" s="0" t="n">
         <v>77</v>
@@ -5435,7 +5442,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>75</v>
@@ -5444,10 +5451,10 @@
         <v>22</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G175" s="0" t="n">
         <v>104</v>
@@ -5461,7 +5468,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>75</v>
@@ -5470,10 +5477,10 @@
         <v>23</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G176" s="0" t="n">
         <v>87</v>
@@ -5487,7 +5494,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>75</v>
@@ -5496,10 +5503,10 @@
         <v>24</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G177" s="0" t="n">
         <v>88</v>
@@ -5513,7 +5520,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>75</v>
@@ -5522,10 +5529,10 @@
         <v>25</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G178" s="0" t="n">
         <v>90</v>
@@ -5539,7 +5546,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>75</v>
@@ -5548,10 +5555,10 @@
         <v>26</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G179" s="0" t="n">
         <v>104</v>
@@ -5565,7 +5572,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>75</v>
@@ -5574,10 +5581,10 @@
         <v>27</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>91</v>
@@ -5591,7 +5598,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>75</v>
@@ -5600,10 +5607,10 @@
         <v>28</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G181" s="0" t="n">
         <v>96</v>
@@ -5617,7 +5624,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>75</v>
@@ -5626,10 +5633,10 @@
         <v>29</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G182" s="0" t="n">
         <v>93</v>
@@ -5643,7 +5650,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>75</v>
@@ -5652,10 +5659,10 @@
         <v>30</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G183" s="0" t="n">
         <v>89</v>
@@ -5669,7 +5676,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>75</v>
@@ -5678,10 +5685,10 @@
         <v>31</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G184" s="0" t="n">
         <v>98</v>
@@ -5695,7 +5702,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>75</v>
@@ -5704,10 +5711,10 @@
         <v>32</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>84</v>
@@ -5721,7 +5728,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>75</v>
@@ -5730,10 +5737,10 @@
         <v>33</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>85</v>
@@ -5747,7 +5754,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>75</v>
@@ -5756,10 +5763,10 @@
         <v>34</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G187" s="0" t="n">
         <v>89</v>
@@ -5773,7 +5780,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>75</v>
@@ -5782,10 +5789,10 @@
         <v>35</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G188" s="0" t="n">
         <v>86</v>
@@ -5799,7 +5806,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>75</v>
@@ -5808,10 +5815,10 @@
         <v>36</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G189" s="0" t="n">
         <v>84</v>
@@ -5825,7 +5832,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>75</v>
@@ -5834,10 +5841,10 @@
         <v>37</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>102</v>
@@ -5851,7 +5858,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>75</v>
@@ -5860,10 +5867,10 @@
         <v>38</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G191" s="0" t="n">
         <v>80</v>
@@ -5877,7 +5884,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>75</v>
@@ -5886,10 +5893,10 @@
         <v>39</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>87</v>
@@ -5903,7 +5910,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>75</v>
@@ -5912,10 +5919,10 @@
         <v>40</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G193" s="0" t="n">
         <v>97</v>
@@ -5929,7 +5936,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>75</v>
@@ -5938,10 +5945,10 @@
         <v>41</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G194" s="0" t="n">
         <v>63</v>
@@ -5955,7 +5962,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>75</v>
@@ -5964,10 +5971,10 @@
         <v>42</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>90</v>
@@ -5981,7 +5988,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>75</v>
@@ -5990,10 +5997,10 @@
         <v>43</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>73</v>
@@ -6007,7 +6014,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>75</v>
@@ -6016,10 +6023,10 @@
         <v>44</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>85</v>
@@ -6033,7 +6040,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>75</v>
@@ -6042,10 +6049,10 @@
         <v>45</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>92</v>
@@ -6059,7 +6066,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>75</v>
@@ -6068,10 +6075,10 @@
         <v>46</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>85</v>
@@ -6085,7 +6092,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>75</v>
@@ -6094,10 +6101,10 @@
         <v>47</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>93</v>
@@ -6111,7 +6118,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>75</v>
@@ -6120,10 +6127,10 @@
         <v>48</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>86</v>
@@ -6137,7 +6144,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>75</v>
@@ -6146,10 +6153,10 @@
         <v>49</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G202" s="0" t="n">
         <v>98</v>
@@ -6163,7 +6170,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>100</v>
@@ -6172,10 +6179,10 @@
         <v>0</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>88</v>
@@ -6189,7 +6196,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>100</v>
@@ -6198,10 +6205,10 @@
         <v>1</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>109</v>
@@ -6215,7 +6222,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>100</v>
@@ -6224,10 +6231,10 @@
         <v>2</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G205" s="0" t="n">
         <v>107</v>
@@ -6241,7 +6248,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>100</v>
@@ -6250,10 +6257,10 @@
         <v>3</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>79</v>
@@ -6267,7 +6274,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>100</v>
@@ -6276,10 +6283,10 @@
         <v>4</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>107</v>
@@ -6293,7 +6300,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>100</v>
@@ -6302,10 +6309,10 @@
         <v>5</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>76</v>
@@ -6319,7 +6326,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>100</v>
@@ -6328,10 +6335,10 @@
         <v>6</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>83</v>
@@ -6345,7 +6352,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>100</v>
@@ -6354,10 +6361,10 @@
         <v>7</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>98</v>
@@ -6371,7 +6378,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>100</v>
@@ -6380,10 +6387,10 @@
         <v>8</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>70</v>
@@ -6397,7 +6404,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>100</v>
@@ -6406,10 +6413,10 @@
         <v>9</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>74</v>
@@ -6423,7 +6430,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>100</v>
@@ -6432,10 +6439,10 @@
         <v>10</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>104</v>
@@ -6449,7 +6456,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>100</v>
@@ -6458,10 +6465,10 @@
         <v>11</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>88</v>
@@ -6475,7 +6482,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>100</v>
@@ -6484,10 +6491,10 @@
         <v>12</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>77</v>
@@ -6501,7 +6508,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>100</v>
@@ -6510,10 +6517,10 @@
         <v>13</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>79</v>
@@ -6527,7 +6534,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>100</v>
@@ -6536,10 +6543,10 @@
         <v>14</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G217" s="0" t="n">
         <v>94</v>
@@ -6553,7 +6560,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>100</v>
@@ -6562,10 +6569,10 @@
         <v>15</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>89</v>
@@ -6579,7 +6586,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>100</v>
@@ -6588,10 +6595,10 @@
         <v>16</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>93</v>
@@ -6605,7 +6612,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>100</v>
@@ -6614,10 +6621,10 @@
         <v>17</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>87</v>
@@ -6631,7 +6638,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>100</v>
@@ -6640,10 +6647,10 @@
         <v>18</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>77</v>
@@ -6657,7 +6664,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>100</v>
@@ -6666,10 +6673,10 @@
         <v>19</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>107</v>
@@ -6683,7 +6690,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>100</v>
@@ -6692,10 +6699,10 @@
         <v>20</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>89</v>
@@ -6709,7 +6716,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>100</v>
@@ -6718,10 +6725,10 @@
         <v>21</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>77</v>
@@ -6735,7 +6742,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>100</v>
@@ -6744,10 +6751,10 @@
         <v>22</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>109</v>
@@ -6761,7 +6768,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>100</v>
@@ -6770,10 +6777,10 @@
         <v>23</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>87</v>
@@ -6787,7 +6794,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>100</v>
@@ -6796,10 +6803,10 @@
         <v>24</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>88</v>
@@ -6813,7 +6820,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>100</v>
@@ -6822,10 +6829,10 @@
         <v>25</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>92</v>
@@ -6839,7 +6846,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>100</v>
@@ -6848,10 +6855,10 @@
         <v>26</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>108</v>
@@ -6865,7 +6872,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>100</v>
@@ -6874,10 +6881,10 @@
         <v>27</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>93</v>
@@ -6891,7 +6898,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>100</v>
@@ -6900,10 +6907,10 @@
         <v>28</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>97</v>
@@ -6917,7 +6924,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>100</v>
@@ -6926,10 +6933,10 @@
         <v>29</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G232" s="0" t="n">
         <v>93</v>
@@ -6943,7 +6950,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>100</v>
@@ -6952,10 +6959,10 @@
         <v>30</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>89</v>
@@ -6969,7 +6976,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>100</v>
@@ -6978,10 +6985,10 @@
         <v>31</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G234" s="0" t="n">
         <v>98</v>
@@ -6995,7 +7002,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>100</v>
@@ -7004,10 +7011,10 @@
         <v>32</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G235" s="0" t="n">
         <v>86</v>
@@ -7021,7 +7028,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>100</v>
@@ -7030,10 +7037,10 @@
         <v>33</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G236" s="0" t="n">
         <v>88</v>
@@ -7047,7 +7054,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>100</v>
@@ -7056,10 +7063,10 @@
         <v>34</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G237" s="0" t="n">
         <v>92</v>
@@ -7073,7 +7080,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>100</v>
@@ -7082,10 +7089,10 @@
         <v>35</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G238" s="0" t="n">
         <v>86</v>
@@ -7099,7 +7106,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>100</v>
@@ -7108,10 +7115,10 @@
         <v>36</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G239" s="0" t="n">
         <v>85</v>
@@ -7125,7 +7132,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>100</v>
@@ -7134,10 +7141,10 @@
         <v>37</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G240" s="0" t="n">
         <v>104</v>
@@ -7151,7 +7158,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>100</v>
@@ -7160,10 +7167,10 @@
         <v>38</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G241" s="0" t="n">
         <v>83</v>
@@ -7177,7 +7184,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>100</v>
@@ -7186,10 +7193,10 @@
         <v>39</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G242" s="0" t="n">
         <v>89</v>
@@ -7203,7 +7210,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>100</v>
@@ -7212,10 +7219,10 @@
         <v>40</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G243" s="0" t="n">
         <v>99</v>
@@ -7229,7 +7236,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>100</v>
@@ -7238,10 +7245,10 @@
         <v>41</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G244" s="0" t="n">
         <v>64</v>
@@ -7255,7 +7262,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>100</v>
@@ -7264,10 +7271,10 @@
         <v>42</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G245" s="0" t="n">
         <v>90</v>
@@ -7281,7 +7288,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>100</v>
@@ -7290,10 +7297,10 @@
         <v>43</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G246" s="0" t="n">
         <v>74</v>
@@ -7307,7 +7314,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>100</v>
@@ -7316,10 +7323,10 @@
         <v>44</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G247" s="0" t="n">
         <v>87</v>
@@ -7333,7 +7340,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>100</v>
@@ -7342,10 +7349,10 @@
         <v>45</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G248" s="0" t="n">
         <v>92</v>
@@ -7359,7 +7366,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>100</v>
@@ -7368,10 +7375,10 @@
         <v>46</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G249" s="0" t="n">
         <v>85</v>
@@ -7385,7 +7392,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>100</v>
@@ -7394,10 +7401,10 @@
         <v>47</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G250" s="0" t="n">
         <v>98</v>
@@ -7411,7 +7418,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>100</v>
@@ -7420,10 +7427,10 @@
         <v>48</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G251" s="0" t="n">
         <v>89</v>
@@ -7437,7 +7444,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>100</v>
@@ -7446,10 +7453,10 @@
         <v>49</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G252" s="0" t="n">
         <v>98</v>
